--- a/Longitudinal-Dispersion-River/longitudinal dispersion raw data.xlsx
+++ b/Longitudinal-Dispersion-River/longitudinal dispersion raw data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniallap\Desktop\longitudinal dispersion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniallap\Documents\GitHub\pollution\Longitudinal-Dispersion-River\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B59411-6D73-4E5E-AA9D-2B7C36465A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B1831-B1A6-4E0E-A5CB-58B6B5302DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6BCF25B0-44AF-4F5A-AE2C-DA33C3FBF1AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{6BCF25B0-44AF-4F5A-AE2C-DA33C3FBF1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4936" uniqueCount="434">
   <si>
     <t>Database No</t>
   </si>
@@ -1352,12 +1353,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1390,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1399,6 +1406,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1715,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51406353-BE92-4744-857E-6082828533E4}">
   <dimension ref="A1:M898"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="F1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38101,4 +38111,3185 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD679A3-C2B9-46AB-88EE-34770C7C22BA}">
+  <dimension ref="A1:E186"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection sqref="A1:E186"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E2" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3.77</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5.54</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>5.57</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3.45</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="E14" s="8">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="8">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>10.82</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>10.97</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>10.99</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E18" s="8">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>11.21</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>11.58</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E24" s="8">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E25" s="8">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="D26" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>13</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="E28" s="8">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="D29" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E30" s="8">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>13.72</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="D32" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>14.9</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E34" s="8">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E36" s="8">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E37" s="8">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>15.849600000000001</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.42671999999999999</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.36576000000000003</v>
+      </c>
+      <c r="D38" s="10">
+        <v>5.4864000000000003E-2</v>
+      </c>
+      <c r="E38" s="10">
+        <v>13.935456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>15.85</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E39" s="8">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>15.9</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="D40" s="8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E40" s="8">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>15.9</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E41" s="10">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>16</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="D42" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E42" s="8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>16</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E43" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>16.66</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E44" s="8">
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>16.8</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E45" s="10">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E46" s="8">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>17.37</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="D47" s="8">
+        <v>5.0338000000000001E-2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>17.53</v>
+      </c>
+      <c r="B48" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E48" s="10">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>18.29</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E49" s="8">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E51" s="8">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>19</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E52" s="8">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>19.39</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E53" s="8">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="D54" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E54" s="8">
+        <v>32.520000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="8">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>19.8</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E56" s="8">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>19.8</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="D57" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E57" s="8">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>20</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="E58" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>20</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D59" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E59" s="8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>20</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="D60" s="8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E60" s="8">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>20</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1.92</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0.123</v>
+      </c>
+      <c r="E61" s="8">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E62" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>20.74</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E63" s="8">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>20.97</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E64" s="8">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>21.03</v>
+      </c>
+      <c r="B65" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="D65" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E65" s="8">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>21.3</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="D66" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E66" s="8">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>21.3</v>
+      </c>
+      <c r="B67" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E67" s="8">
+        <v>501.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>21.34</v>
+      </c>
+      <c r="B68" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="D68" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E68" s="8">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>21.64</v>
+      </c>
+      <c r="B69" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E69" s="8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>21.64</v>
+      </c>
+      <c r="B70" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="D70" s="8">
+        <v>4.2369999999999998E-2</v>
+      </c>
+      <c r="E70" s="8">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>21.77</v>
+      </c>
+      <c r="B71" s="9">
+        <v>1.58</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="D71" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E71" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>23.77</v>
+      </c>
+      <c r="B72" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E72" s="8">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>24</v>
+      </c>
+      <c r="B73" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="C73" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="D73" s="10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E73" s="10">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="B74" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="D74" s="8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E74" s="8">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>24.4</v>
+      </c>
+      <c r="B75" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="D75" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E75" s="8">
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>24.4</v>
+      </c>
+      <c r="B76" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="D76" s="8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E76" s="8">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>24.7</v>
+      </c>
+      <c r="B77" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E77" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>24.99</v>
+      </c>
+      <c r="B78" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="D78" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E78" s="8">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>25</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E79" s="8">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>25</v>
+      </c>
+      <c r="B80" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="D80" s="8">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E80" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>25</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="D81" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E81" s="8">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>25</v>
+      </c>
+      <c r="B82" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="D82" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E82" s="8">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>25</v>
+      </c>
+      <c r="B83" s="8">
+        <v>1.57</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="D83" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E83" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="B84" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="D84" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E84" s="8">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="B85" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="D85" s="8">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E85" s="8">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>25.91</v>
+      </c>
+      <c r="B86" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="D86" s="8">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E86" s="8">
+        <v>32.520000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>27</v>
+      </c>
+      <c r="B87" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D87" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E87" s="8">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>28.65</v>
+      </c>
+      <c r="B88" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="D88" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E88" s="8">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>29.61</v>
+      </c>
+      <c r="B89" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="C89" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="D89" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E89" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>30</v>
+      </c>
+      <c r="B90" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="D90" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E90" s="8">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>31.39</v>
+      </c>
+      <c r="B91" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="C91" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="D91" s="8">
+        <v>4.1029000000000003E-2</v>
+      </c>
+      <c r="E91" s="8">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>31.7</v>
+      </c>
+      <c r="B92" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="C92" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="D92" s="8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E92" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>32</v>
+      </c>
+      <c r="B93" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C93" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="D93" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E93" s="8">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>32.6</v>
+      </c>
+      <c r="B94" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="D94" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E94" s="8">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>33.4</v>
+      </c>
+      <c r="B95" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="C95" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D95" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E95" s="8">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>33.53</v>
+      </c>
+      <c r="B96" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="C96" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="D96" s="8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E96" s="8">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B97" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="C97" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D97" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E97" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>34</v>
+      </c>
+      <c r="B98" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="C98" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D98" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E98" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>34</v>
+      </c>
+      <c r="B99" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C99" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="D99" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E99" s="8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="B100" s="8">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C100" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="E100" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>35</v>
+      </c>
+      <c r="B101" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C101" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D101" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="E101" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>35</v>
+      </c>
+      <c r="B102" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C102" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="D102" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E102" s="8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="B103" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="C103" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E103" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>35.1</v>
+      </c>
+      <c r="B104" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="C104" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="E104" s="9">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>36</v>
+      </c>
+      <c r="B105" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C105" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E105" s="8">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>36.58</v>
+      </c>
+      <c r="B106" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="C106" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="E106" s="8">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>36.6</v>
+      </c>
+      <c r="B107" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="C107" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E107" s="8">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B108" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="C108" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="D108" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E108" s="8">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>37</v>
+      </c>
+      <c r="B109" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="C109" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D109" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E109" s="8">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <v>40.5</v>
+      </c>
+      <c r="B110" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="C110" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="D110" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E110" s="8">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>41.45</v>
+      </c>
+      <c r="B111" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="C111" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D111" s="8">
+        <v>9.0343000000000007E-2</v>
+      </c>
+      <c r="E111" s="8">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <v>42.2</v>
+      </c>
+      <c r="B112" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="C112" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="D112" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E112" s="8">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
+        <v>42.4</v>
+      </c>
+      <c r="B113" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C113" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="D113" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E113" s="8">
+        <v>30.19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
+        <v>43</v>
+      </c>
+      <c r="B114" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C114" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="D114" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E114" s="8">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <v>44.2</v>
+      </c>
+      <c r="B115" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="C115" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D115" s="8">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E115" s="8">
+        <v>184.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>46.9</v>
+      </c>
+      <c r="B116" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="C116" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D116" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E116" s="8">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>47.244</v>
+      </c>
+      <c r="B117" s="10">
+        <v>0.85343999999999998</v>
+      </c>
+      <c r="C117" s="10">
+        <v>0.24384000000000003</v>
+      </c>
+      <c r="D117" s="10">
+        <v>7.0104E-2</v>
+      </c>
+      <c r="E117" s="10">
+        <v>13.935456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <v>47.5</v>
+      </c>
+      <c r="B118" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="C118" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D118" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E118" s="8">
+        <v>37.159999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="B119" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C119" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="D119" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E119" s="8">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <v>48.7</v>
+      </c>
+      <c r="B120" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C120" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="D120" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E120" s="8">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <v>49</v>
+      </c>
+      <c r="B121" s="8">
+        <v>8.07</v>
+      </c>
+      <c r="C121" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="D121" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E121" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
+        <v>49.7</v>
+      </c>
+      <c r="B122" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="C122" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D122" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E122" s="8">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <v>49.99</v>
+      </c>
+      <c r="B123" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="C123" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="D123" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E123" s="8">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
+        <v>50.9</v>
+      </c>
+      <c r="B124" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="C124" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="D124" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E124" s="8">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
+        <v>51.21</v>
+      </c>
+      <c r="B125" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="C125" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="D125" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E125" s="8">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
+        <v>53.2</v>
+      </c>
+      <c r="B126" s="8">
+        <v>2.41</v>
+      </c>
+      <c r="C126" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="D126" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="E126" s="8">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
+        <v>53.3</v>
+      </c>
+      <c r="B127" s="8">
+        <v>2.09</v>
+      </c>
+      <c r="C127" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="D127" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E127" s="8">
+        <v>46.45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <v>57.91</v>
+      </c>
+      <c r="B128" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C128" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0.104</v>
+      </c>
+      <c r="E128" s="8">
+        <v>40.49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
+        <v>59</v>
+      </c>
+      <c r="B129" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="C129" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="D129" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E129" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
+        <v>59.4</v>
+      </c>
+      <c r="B130" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C130" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="D130" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E130" s="8">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
+        <v>59.4</v>
+      </c>
+      <c r="B131" s="8">
+        <v>2.13</v>
+      </c>
+      <c r="C131" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E131" s="8">
+        <v>53.88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>60</v>
+      </c>
+      <c r="B132" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="C132" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="D132" s="10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E132" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
+        <v>63</v>
+      </c>
+      <c r="B133" s="8">
+        <v>1</v>
+      </c>
+      <c r="C133" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="D133" s="8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E133" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <v>63.7</v>
+      </c>
+      <c r="B134" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="C134" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D134" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E134" s="8">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
+        <v>64</v>
+      </c>
+      <c r="B135" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="C135" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="D135" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E135" s="8">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
+        <v>65.5</v>
+      </c>
+      <c r="B136" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C136" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="D136" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E136" s="8">
+        <v>32.520000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="8">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="B137" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C137" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="D137" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E137" s="8">
+        <v>30.19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="B138" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="C138" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="D138" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E138" s="8">
+        <v>41.81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="8">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="B139" s="8">
+        <v>2.16</v>
+      </c>
+      <c r="C139" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="D139" s="8">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E139" s="8">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="B140" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="C140" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="D140" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E140" s="8">
+        <v>111.48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="B141" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C141" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E141" s="8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>75</v>
+      </c>
+      <c r="B142" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="C142" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="E142" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="B143" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="C143" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="D143" s="8">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E143" s="8">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
+        <v>76</v>
+      </c>
+      <c r="B144" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C144" s="10">
+        <v>1.41</v>
+      </c>
+      <c r="D144" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E144" s="10">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>78</v>
+      </c>
+      <c r="B145" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C145" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="D145" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E145" s="8">
+        <v>325.60000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
+        <v>80</v>
+      </c>
+      <c r="B146" s="8">
+        <v>2.74</v>
+      </c>
+      <c r="C146" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D146" s="8">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E146" s="8">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="8">
+        <v>80</v>
+      </c>
+      <c r="B147" s="8">
+        <v>2.74</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D147" s="8">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E147" s="8">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="8">
+        <v>85</v>
+      </c>
+      <c r="B148" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="C148" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="D148" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E148" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
+        <v>85.3</v>
+      </c>
+      <c r="B149" s="8">
+        <v>2.38</v>
+      </c>
+      <c r="C149" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="D149" s="8">
+        <v>0.153</v>
+      </c>
+      <c r="E149" s="8">
+        <v>464.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>85.953600000000009</v>
+      </c>
+      <c r="B150" s="10">
+        <v>2.8194000000000004</v>
+      </c>
+      <c r="C150" s="10">
+        <v>1.2496799999999999</v>
+      </c>
+      <c r="D150" s="10">
+        <v>0.51816000000000006</v>
+      </c>
+      <c r="E150" s="10">
+        <v>1798.6028544000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="8">
+        <v>86</v>
+      </c>
+      <c r="B151" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="C151" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="D151" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="E151" s="8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="8">
+        <v>91.9</v>
+      </c>
+      <c r="B152" s="8">
+        <v>2.44</v>
+      </c>
+      <c r="C152" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="D152" s="8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E152" s="8">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="8">
+        <v>92.96</v>
+      </c>
+      <c r="B153" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="C153" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D153" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E153" s="8">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="B154" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C154" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="D154" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E154" s="8">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="8">
+        <v>100</v>
+      </c>
+      <c r="B155" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C155" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D155" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="E155" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="8">
+        <v>102</v>
+      </c>
+      <c r="B156" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C156" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="D156" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E156" s="8">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="8">
+        <v>103.6</v>
+      </c>
+      <c r="B157" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="C157" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D157" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E157" s="8">
+        <v>315.87</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
+        <v>106.1</v>
+      </c>
+      <c r="B158" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="C158" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="D158" s="8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E158" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="8">
+        <v>116.4</v>
+      </c>
+      <c r="B159" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="C159" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D159" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E159" s="8">
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="8">
+        <v>120</v>
+      </c>
+      <c r="B160" s="8">
+        <v>2</v>
+      </c>
+      <c r="C160" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="D160" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E160" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="8">
+        <v>127.4</v>
+      </c>
+      <c r="B161" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="C161" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="D161" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E161" s="8">
+        <v>668.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="8">
+        <v>152.4</v>
+      </c>
+      <c r="B162" s="8">
+        <v>3.66</v>
+      </c>
+      <c r="C162" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="D162" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E162" s="8">
+        <v>227.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="8">
+        <v>155.1</v>
+      </c>
+      <c r="B163" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="C163" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="D163" s="8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E163" s="8">
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="8">
+        <v>158</v>
+      </c>
+      <c r="B164" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="C164" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="D164" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E164" s="8">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="8">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="B165" s="8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C165" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="D165" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E165" s="8">
+        <v>308.89999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="8">
+        <v>161.5</v>
+      </c>
+      <c r="B166" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C166" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="D166" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E166" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="8">
+        <v>161.5</v>
+      </c>
+      <c r="B167" s="8">
+        <v>3.96</v>
+      </c>
+      <c r="C167" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D167" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E167" s="8">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="B168" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C168" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="D168" s="8">
+        <v>0.159</v>
+      </c>
+      <c r="E168" s="8">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="8">
+        <v>176</v>
+      </c>
+      <c r="B169" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="C169" s="8">
+        <v>1.61</v>
+      </c>
+      <c r="D169" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E169" s="8">
+        <v>966.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="8">
+        <v>182.88</v>
+      </c>
+      <c r="B170" s="8">
+        <v>3.2918400000000005</v>
+      </c>
+      <c r="C170" s="8">
+        <v>1.5544799999999999</v>
+      </c>
+      <c r="D170" s="8">
+        <v>7.9248000000000013E-2</v>
+      </c>
+      <c r="E170" s="8">
+        <v>1486.4486400000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="8">
+        <v>182.9</v>
+      </c>
+      <c r="B171" s="8">
+        <v>2.23</v>
+      </c>
+      <c r="C171" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="D171" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E171" s="8">
+        <v>464.52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="8">
+        <v>183</v>
+      </c>
+      <c r="B172" s="8">
+        <v>2.33</v>
+      </c>
+      <c r="C172" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="D172" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E172" s="8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="8">
+        <v>183</v>
+      </c>
+      <c r="B173" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="C173" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="D173" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E173" s="8">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="8">
+        <v>194</v>
+      </c>
+      <c r="B174" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="C174" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="D174" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E174" s="8">
+        <v>537.70000000000005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="8">
+        <v>197</v>
+      </c>
+      <c r="B175" s="8">
+        <v>3.11</v>
+      </c>
+      <c r="C175" s="8">
+        <v>1.53</v>
+      </c>
+      <c r="D175" s="8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E175" s="8">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="10">
+        <v>201</v>
+      </c>
+      <c r="B176" s="10">
+        <v>3.56</v>
+      </c>
+      <c r="C176" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="D176" s="10">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E176" s="10">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="8">
+        <v>202</v>
+      </c>
+      <c r="B177" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C177" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="D177" s="8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E177" s="8">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="8">
+        <v>203</v>
+      </c>
+      <c r="B178" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="C178" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="D178" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E178" s="8">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="8">
+        <v>229</v>
+      </c>
+      <c r="B179" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="C179" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="D179" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E179" s="8">
+        <v>309.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="8">
+        <v>230</v>
+      </c>
+      <c r="B180" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="C180" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="D180" s="8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E180" s="8">
+        <v>455.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="8">
+        <v>253.6</v>
+      </c>
+      <c r="B181" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="C181" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="D181" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E181" s="8">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="8">
+        <v>259</v>
+      </c>
+      <c r="B182" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="C182" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="D182" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E182" s="8">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="8">
+        <v>300</v>
+      </c>
+      <c r="B183" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C183" s="8">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E183" s="8">
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="8">
+        <v>300</v>
+      </c>
+      <c r="B184" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C184" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="D184" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E184" s="8">
+        <v>227.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="8">
+        <v>537.4</v>
+      </c>
+      <c r="B185" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="C185" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="D185" s="8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E185" s="8">
+        <v>374.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="9">
+        <v>711.2</v>
+      </c>
+      <c r="B186" s="9">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="C186" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D186" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E186" s="9">
+        <v>237.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E186">
+    <sortCondition ref="A2:A186"/>
+    <sortCondition ref="B2:B186"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>